--- a/TabToy/Tables/TableTest/Blongs.xlsx
+++ b/TabToy/Tables/TableTest/Blongs.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\FramEventProject\TabToy\Tables\TableTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC1CAA5-2670-49D5-BCA6-3CDE85CC2B80}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blongs" sheetId="3" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -135,13 +141,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -323,10 +329,6 @@
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -441,8 +443,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,40 +850,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5">
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -889,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -898,12 +900,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -911,29 +913,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4">
@@ -941,12 +943,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4">
@@ -954,12 +956,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4">
@@ -967,23 +969,23 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4">
@@ -999,12 +1001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -1014,38 +1018,38 @@
     <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5">
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1059,10 +1063,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -1071,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
